--- a/server_test.xlsx
+++ b/server_test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Object</t>
   </si>
@@ -43,16 +43,36 @@
   </si>
   <si>
     <t>https://agile-wildwood-34684.herokuapp.com/api/cities</t>
+  </si>
+  <si>
+    <t>School : /api/schools</t>
+  </si>
+  <si>
+    <t>https://agile-wildwood-34684.herokuapp.com/api/schools</t>
+  </si>
+  <si>
+    <t>{"function":"add","params": {"city":"Bareilly", "school": {"name" : "St. stephens", "schoolId":"school9927", "city":"Bareilly"}}}</t>
+  </si>
+  <si>
+    <t>"59caa98e3273bd0400695d3d"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -92,12 +112,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -379,53 +400,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46" style="1" customWidth="1"/>
-    <col min="4" max="4" width="73.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.5546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="20.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="54.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="103.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="73.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="46.5546875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{C71E99B9-A3B7-47CE-836E-2FDA4184C90E}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{49255DB7-1B0B-48C1-936E-13F40E406E13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/server_test.xlsx
+++ b/server_test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Object</t>
   </si>
@@ -55,6 +55,21 @@
   </si>
   <si>
     <t>"59caa98e3273bd0400695d3d"</t>
+  </si>
+  <si>
+    <t>Classes : /api/classes</t>
+  </si>
+  <si>
+    <t>{"function":"fetch", "params":{"city":"Bareilly","school":"St. stephens"}}</t>
+  </si>
+  <si>
+    <t>{"classes":[{"name":"XI","section":"E"},{"name":"X","section":"B"},{"name":"X","section":"A"},{"name":"X","section":"B"}]}</t>
+  </si>
+  <si>
+    <t>{"function":"add", "params":{"city":"Bareilly" , "schoolId": "school9927", "classes" : [{"name":"II", "section":"B", "schoolId": "school9927", "schoolName":"St. stephens", "city":"Bareilly"}]}}</t>
+  </si>
+  <si>
+    <t>{"classid":["59cd50a41e3b90c41fc05fbc"]}</t>
   </si>
 </sst>
 </file>
@@ -114,9 +129,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
@@ -400,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -408,54 +422,73 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="54.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="103.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="73.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="46.5546875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="20.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="103.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="73.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.5546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/server_test.xlsx
+++ b/server_test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Object</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>{"classid":["59cd50a41e3b90c41fc05fbc"]}</t>
+  </si>
+  <si>
+    <t>Teachers: /api/teachers</t>
+  </si>
+  <si>
+    <t>{"function":"add", "teacher" :{"schoolId":"school9927","password":"pihugolu","aadharId":"fghjklasd","section":"B","city":"Bareilly","email":"oathak.sb@gmail.com","phone":"9004890850","schoolName":"Uttam Public","firstName":"shibu","class":"IV","middleName":"nope","role":"teacher","lastName":"pathak","classId":"59cd50a41e3b90c41fc05fbc"}}</t>
+  </si>
+  <si>
+    <t>{"teacherid":"59d1d1919cd9210400a12790","classid":"59cd50a41e3b90c41fc05fbc"}</t>
   </si>
 </sst>
 </file>
@@ -414,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,7 +439,7 @@
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -458,7 +467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -472,7 +481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -483,12 +492,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/server_test.xlsx
+++ b/server_test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Object</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>{"teacherid":"59d1d1919cd9210400a12790","classid":"59cd50a41e3b90c41fc05fbc"}</t>
+  </si>
+  <si>
+    <t>Students:/api/students</t>
+  </si>
+  <si>
+    <t>{"classId":"59cd50a41e3b90c41fc05fbc" , "students" : [{"name":"Shibu", "rollno":"121", "className":"IV", "section":"B" , "schoolName":"St. stephens", "city":"Bareilly", "schoolId": "school9927"}, {"name":"Rupa", "rollno":"122","className":"IV", "section":"B" , "schoolName":"St. stephens", "city":"Bareilly", "schoolId": "school9927"}, {"name":"Sona", "rollno":"123", "className":"IV", "section":"B" , "schoolName":"St. stephens", "city":"Bareilly", "schoolId": "school9927"}]}</t>
+  </si>
+  <si>
+    <t>{"studentids":["59e342676057c904003b2e45","59e342676057c904003b2e46","59e342676057c904003b2e47"]}</t>
   </si>
 </sst>
 </file>
@@ -423,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,6 +520,17 @@
         <v>19</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{C71E99B9-A3B7-47CE-836E-2FDA4184C90E}"/>

--- a/server_test.xlsx
+++ b/server_test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Object</t>
   </si>
@@ -88,6 +88,13 @@
   </si>
   <si>
     <t>{"studentids":["59e342676057c904003b2e45","59e342676057c904003b2e46","59e342676057c904003b2e47"]}</t>
+  </si>
+  <si>
+    <t>Parent:/api/parents: ADD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"function":"add", "parent" :{"password":"pihugolu","aadharId":"fghjklasd","section":"B","city":"Bareilly","email":"ritikpbhod@gmail.com","phone":"9004890850","schoolName":"St. stephens","firstName":"Ritik","class":"IV","middleName":"nope","role":"parent","lastName":"pathak"}}
+</t>
   </si>
 </sst>
 </file>
@@ -147,10 +154,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -432,15 +442,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="54.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="103.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="73.109375" style="1" customWidth="1"/>
@@ -531,6 +541,14 @@
         <v>22</v>
       </c>
     </row>
+    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{C71E99B9-A3B7-47CE-836E-2FDA4184C90E}"/>

--- a/server_test.xlsx
+++ b/server_test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Object</t>
   </si>
@@ -95,6 +95,18 @@
   <si>
     <t xml:space="preserve">{"function":"add", "parent" :{"password":"pihugolu","aadharId":"fghjklasd","section":"B","city":"Bareilly","email":"ritikpbhod@gmail.com","phone":"9004890850","schoolName":"St. stephens","firstName":"Ritik","class":"IV","middleName":"nope","role":"parent","lastName":"pathak"}}
 </t>
+  </si>
+  <si>
+    <t>"{ \"parentid\":\"59e37a4a733594040063f0a5\",\"students\":[{ \"name\":\"Shibu\",\"rollno\":\"121\",\"studentid\":\"59e32a99e62e510400d18356\"},//all students of class]}"</t>
+  </si>
+  <si>
+    <t>Parent:/api/parents: SUBSCRIBE</t>
+  </si>
+  <si>
+    <t>{"function":"subscribe", "params" : {"parentid":"59e37a4a733594040063f0a5", "studentid":"59e342676057c904003b2e45"}}</t>
+  </si>
+  <si>
+    <t>{"_id":"59e342676057c904003b2e45","name":"Shibu","rollno":"121","className":"IV","section":"B","schoolName":"St. stephens","city":"Bareilly","__v":0,"applications":[],"notifications":[],"attendance":[]}</t>
   </si>
 </sst>
 </file>
@@ -442,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,6 +560,20 @@
       <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/server_test.xlsx
+++ b/server_test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Object</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>{"_id":"59e342676057c904003b2e45","name":"Shibu","rollno":"121","className":"IV","section":"B","schoolName":"St. stephens","city":"Bareilly","__v":0,"applications":[],"notifications":[],"attendance":[]}</t>
+  </si>
+  <si>
+    <t>Parent:/api/parents:UNSUBSCRIBE</t>
+  </si>
+  <si>
+    <t>{"function":"unsubscribe", "params" : {"parentid":"59e37a4a733594040063f0a5", "studentid":"59e342676057c904003b2e45"}}</t>
+  </si>
+  <si>
+    <t>{"_id":"59e37a4a733594040063f0a5","password":"pihugolu","aadharId":"fghjklasd","section":"B","city":"Bareilly","email":"ritikpbhod@gmail.com","phone":"9004890850","schoolName":"St. stephens","firstName":"Ritik","class":"IV","middleName":"nope","lastName":"pathak","__v":0,"subscribedStudents":[]}</t>
   </si>
 </sst>
 </file>
@@ -454,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,6 +584,17 @@
         <v>28</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{C71E99B9-A3B7-47CE-836E-2FDA4184C90E}"/>

--- a/server_test.xlsx
+++ b/server_test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Object</t>
   </si>
@@ -116,6 +116,28 @@
   </si>
   <si>
     <t>{"_id":"59e37a4a733594040063f0a5","password":"pihugolu","aadharId":"fghjklasd","section":"B","city":"Bareilly","email":"ritikpbhod@gmail.com","phone":"9004890850","schoolName":"St. stephens","firstName":"Ritik","class":"IV","middleName":"nope","lastName":"pathak","__v":0,"subscribedStudents":[]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"reciever":"class", "params":{"class":"II", "section":"B", "city":"Bareilly", "schoolName":"St. stephens", "studentcount":"6", "notification":{"title":"Sample Notif", "subject":"Hello There!"}}}
+</t>
+  </si>
+  <si>
+    <t>{"__v":0,"title":"Sample Notif","subject":"Hello There!","_id":"59e3c3ed2260780400aedc43","time":"2017-10-15T20:24:13.086Z"}</t>
+  </si>
+  <si>
+    <t>Notification:/api/notifications:ADD_CLASS</t>
+  </si>
+  <si>
+    <t>Notification:/api/notifications:ADD_STUDENT</t>
+  </si>
+  <si>
+    <t>{"reciever":"student", "params":{"class":"II", "section":"B", "city":"Bareilly", "schoolName":"St. stephens", "name":"Shibu","rollno":"121", "notification":{"title":"Sample Notif for student 2", "subject":"Hello There! 2"}}}</t>
+  </si>
+  <si>
+    <t>{"__v":0,"title":"Sample Notif for student 2","subject":"Hello There! 2","_id":"59e3c6d52260780400aedc45","time":"2017-10-15T20:36:37.342Z"}</t>
+  </si>
+  <si>
+    <t>Notification:/api/notifications:ADD_STUDENT_LOAD</t>
   </si>
 </sst>
 </file>
@@ -463,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,6 +617,38 @@
         <v>31</v>
       </c>
     </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{C71E99B9-A3B7-47CE-836E-2FDA4184C90E}"/>

--- a/server_test.xlsx
+++ b/server_test.xlsx
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
